--- a/biology/Médecine/Château_de_Clavières_(Le_Bignon-du-Maine)/Château_de_Clavières_(Le_Bignon-du-Maine).xlsx
+++ b/biology/Médecine/Château_de_Clavières_(Le_Bignon-du-Maine)/Château_de_Clavières_(Le_Bignon-du-Maine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Clavi%C3%A8res_(Le_Bignon-du-Maine)</t>
+          <t>Château_de_Clavières_(Le_Bignon-du-Maine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Clavières est situé dans la commune du Bignon-du-Maine, située dans le département de la Mayenne, en région Pays de la Loire, en France.  
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Clavi%C3%A8res_(Le_Bignon-du-Maine)</t>
+          <t>Château_de_Clavières_(Le_Bignon-du-Maine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le domaine de Clavières[1] est acquis en 1833 par Louis Guays des Touches, juge à Laval[2], marié en 1827 à Reine Blanche Bucher de Chauvigné (1803-1868), il y construit un château avec une chapelle. 
-Son fils Auguste Guays des Touches (1828-1874)[3], légua par testament en 1874 son château de Clavières au séminaire de Laval, à la condition qu'une messe quotidienne soit célébrée dans la chapelle où se trouve sa sépulture et celles de ses parents[3]. 
-Les frères de Saint-Laurent-sur-Sèvre acceptèrent en 1875 la proposition d'y établir un noviciat, le château devient la maison d'études des frères de Saint-Gabriel. En 1882, le noviciat est remplacé par un juvénat, puis un scolasticat en 1896[1]pour lequel deux corps de bâtiment pouvant loger cent vingt enfants, maitres ou serviteurs, avaient été construit en 1891-93, L'ancienne chapelle forme le chœur de la chapelle actuelle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine de Clavières est acquis en 1833 par Louis Guays des Touches, juge à Laval, marié en 1827 à Reine Blanche Bucher de Chauvigné (1803-1868), il y construit un château avec une chapelle. 
+Son fils Auguste Guays des Touches (1828-1874), légua par testament en 1874 son château de Clavières au séminaire de Laval, à la condition qu'une messe quotidienne soit célébrée dans la chapelle où se trouve sa sépulture et celles de ses parents. 
+Les frères de Saint-Laurent-sur-Sèvre acceptèrent en 1875 la proposition d'y établir un noviciat, le château devient la maison d'études des frères de Saint-Gabriel. En 1882, le noviciat est remplacé par un juvénat, puis un scolasticat en 1896pour lequel deux corps de bâtiment pouvant loger cent vingt enfants, maitres ou serviteurs, avaient été construit en 1891-93, L'ancienne chapelle forme le chœur de la chapelle actuelle.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Clavi%C3%A8res_(Le_Bignon-du-Maine)</t>
+          <t>Château_de_Clavières_(Le_Bignon-du-Maine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Le sanatorium de Clavières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé dans l'ancien château de Clavières, le sanatorium de Clavières, était une station sanitaire au moment de la guerre 1914-1918, l'hôpital auxiliaire de Laval numéro 19, pour le soin des militaires tuberculeux. Après la guerre, le sanatorium accueillit des malades civils tuberculeux. 
-En 1975, il devient le centre médical de la Fontaine-au-Bac[4]. Le centre est maintenant fermé depuis 2008[5]. 
+En 1975, il devient le centre médical de la Fontaine-au-Bac. Le centre est maintenant fermé depuis 2008. 
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Clavi%C3%A8res_(Le_Bignon-du-Maine)</t>
+          <t>Château_de_Clavières_(Le_Bignon-du-Maine)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Propriétaires successifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vendémiaire an II : Jean Verger, métayer de Clavières, d'après l'abbé Angot ; « il fut accusé devant la commission révolutionnaire de favoriser les chouans mais se tira d'affaire, chance rare »
 Avant 1833 : Marie et Élisabeth Lefèvre de La Corbinière.
